--- a/widthHCcombined.xlsx
+++ b/widthHCcombined.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="0" windowWidth="15000" windowHeight="16520" tabRatio="659" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="13360" yWindow="0" windowWidth="13120" windowHeight="16540" tabRatio="659" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ColdYounger" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="116">
   <si>
     <t>Ind48_right_60xobj_YAYHAIR</t>
   </si>
@@ -359,6 +359,21 @@
   <si>
     <t>Indiv6L_c262_40x_second(typo-c292)</t>
   </si>
+  <si>
+    <t>flat position so didn't measure many</t>
+  </si>
+  <si>
+    <t>Indiv147L_c428_60x_second</t>
+  </si>
+  <si>
+    <t>Indiv147L_c428_60x_third</t>
+  </si>
+  <si>
+    <t>Indiv147L_c428_60x_fourth</t>
+  </si>
+  <si>
+    <t>Indiv148L_c416_60x_third</t>
+  </si>
 </sst>
 </file>
 
@@ -447,7 +462,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -492,6 +507,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -507,7 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="39" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="66">
     <cellStyle name="Bad" xfId="39" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -530,6 +567,17 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -551,6 +599,17 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -934,7 +993,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <f>C2*D2</f>
+        <f t="shared" ref="E2:E33" si="0">C2*D2</f>
         <v>6</v>
       </c>
     </row>
@@ -946,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f>C3*D3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -958,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f>C4*D4</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -970,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <f>C5*D5</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -982,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <f>C6*D6</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -994,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <f>C7*D7</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1006,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f>C8*D8</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1018,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <f>C9*D9</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1030,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <f>C10*D10</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1042,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <f>C11*D11</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1054,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f>C12*D12</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1066,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <f>C13*D13</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1078,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <f>C14*D14</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1090,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f>C15*D15</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1102,7 +1161,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <f>C16*D16</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1114,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <f>C17*D17</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1126,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <f>C18*D18</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1138,7 +1197,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <f>C19*D19</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1150,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <f>C20*D20</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1162,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <f>C21*D21</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1180,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <f>C22*D22</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1192,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <f>C23*D23</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1204,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <f>C24*D24</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1216,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <f>C25*D25</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1228,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <f>C26*D26</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1240,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <f>C27*D27</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1252,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <f>C28*D28</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1264,7 +1323,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <f>C29*D29</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1276,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <f>C30*D30</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1288,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <f>C31*D31</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1300,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <f>C32*D32</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1312,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <f>C33*D33</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1324,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <f>C34*D34</f>
+        <f t="shared" ref="E34:E65" si="1">C34*D34</f>
         <v>6</v>
       </c>
     </row>
@@ -1336,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <f>C35*D35</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1350,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <f>C36*D36</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1362,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <f>C37*D37</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1374,7 +1433,7 @@
         <v>2</v>
       </c>
       <c r="E38">
-        <f>C38*D38</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1386,7 +1445,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <f>C39*D39</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1398,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <f>C40*D40</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1410,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <f>C41*D41</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1422,7 +1481,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <f>C42*D42</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1440,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <f>C43*D43</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1452,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <f>C44*D44</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1464,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <f>C45*D45</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1476,7 +1535,7 @@
         <v>2</v>
       </c>
       <c r="E46">
-        <f>C46*D46</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1488,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <f>C47*D47</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1500,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <f>C48*D48</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1512,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <f>C49*D49</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1524,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <f>C50*D50</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1536,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <f>C51*D51</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1548,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="E52">
-        <f>C52*D52</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1560,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="E53">
-        <f>C53*D53</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1572,7 +1631,7 @@
         <v>2</v>
       </c>
       <c r="E54">
-        <f>C54*D54</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1584,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="E55">
-        <f>C55*D55</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1596,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="E56">
-        <f>C56*D56</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1608,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="E57">
-        <f>C57*D57</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1620,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="E58">
-        <f>C58*D58</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1632,7 +1691,7 @@
         <v>2</v>
       </c>
       <c r="E59">
-        <f>C59*D59</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1644,7 +1703,7 @@
         <v>2</v>
       </c>
       <c r="E60">
-        <f>C60*D60</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1656,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="E61">
-        <f>C61*D61</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1668,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="E62">
-        <f>C62*D62</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1680,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="E63">
-        <f>C63*D63</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1698,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="E64">
-        <f>C64*D64</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1710,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <f>C65*D65</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1722,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="E66">
-        <f>C66*D66</f>
+        <f t="shared" ref="E66:E97" si="2">C66*D66</f>
         <v>6</v>
       </c>
     </row>
@@ -1734,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="E67">
-        <f>C67*D67</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -1746,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E131" si="0">C68*D68</f>
+        <f t="shared" ref="E68:E131" si="3">C68*D68</f>
         <v>6</v>
       </c>
     </row>
@@ -1758,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="E69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -1770,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="E70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -1782,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="E71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -1794,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="E72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -1806,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="E73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -1818,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="E74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -1830,7 +1889,7 @@
         <v>2</v>
       </c>
       <c r="E75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -1842,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="E76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -1854,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="E77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -1866,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="E78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -1878,7 +1937,7 @@
         <v>2</v>
       </c>
       <c r="E79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -1890,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="E80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -1902,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="E81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -1914,7 +1973,7 @@
         <v>2</v>
       </c>
       <c r="E82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -1926,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="E83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -1938,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="E84">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -1956,7 +2015,7 @@
         <v>2</v>
       </c>
       <c r="E85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -1968,7 +2027,7 @@
         <v>2</v>
       </c>
       <c r="E86">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -1980,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="E87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -1992,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="E88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2004,7 +2063,7 @@
         <v>2</v>
       </c>
       <c r="E89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2016,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="E90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2028,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="E91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2040,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="E92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2052,7 +2111,7 @@
         <v>2</v>
       </c>
       <c r="E93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2064,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="E94">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2076,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="E95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2088,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="E96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2100,7 +2159,7 @@
         <v>2</v>
       </c>
       <c r="E97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2112,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="E98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2124,7 +2183,7 @@
         <v>2</v>
       </c>
       <c r="E99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2136,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="E100">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2148,7 +2207,7 @@
         <v>2</v>
       </c>
       <c r="E101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2160,7 +2219,7 @@
         <v>2</v>
       </c>
       <c r="E102">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2172,7 +2231,7 @@
         <v>2</v>
       </c>
       <c r="E103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2184,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="E104">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2196,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="E105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2214,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="E106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2226,7 +2285,7 @@
         <v>2</v>
       </c>
       <c r="E107">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2238,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="E108">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -2250,7 +2309,7 @@
         <v>2</v>
       </c>
       <c r="E109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2262,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="E110">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -2274,7 +2333,7 @@
         <v>2</v>
       </c>
       <c r="E111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -2286,7 +2345,7 @@
         <v>2</v>
       </c>
       <c r="E112">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -2298,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="E113">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2310,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="E114">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2322,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="E115">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -2334,7 +2393,7 @@
         <v>2</v>
       </c>
       <c r="E116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2346,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="E117">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -2358,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="E118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2370,7 +2429,7 @@
         <v>2</v>
       </c>
       <c r="E119">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2382,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="E120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2394,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="E121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2406,7 +2465,7 @@
         <v>2</v>
       </c>
       <c r="E122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2418,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="E123">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2430,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="E124">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2442,7 +2501,7 @@
         <v>2</v>
       </c>
       <c r="E125">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -2460,7 +2519,7 @@
         <v>2</v>
       </c>
       <c r="E126">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2472,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="E127">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2484,7 +2543,7 @@
         <v>2</v>
       </c>
       <c r="E128">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2496,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="E129">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2508,7 +2567,7 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2520,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -2532,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E146" si="1">C132*D132</f>
+        <f t="shared" ref="E132:E146" si="4">C132*D132</f>
         <v>8</v>
       </c>
     </row>
@@ -2544,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -2556,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -2568,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -2580,7 +2639,7 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -2592,7 +2651,7 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -2604,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -2616,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -2628,7 +2687,7 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -2640,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -2652,7 +2711,7 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -2664,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -2676,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -2688,7 +2747,7 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -2700,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -2730,7 +2789,7 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <f t="shared" ref="E148:E212" si="2">SUM(C148*D148)</f>
+        <f t="shared" ref="E148:E212" si="5">SUM(C148*D148)</f>
         <v>2</v>
       </c>
     </row>
@@ -2742,7 +2801,7 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2754,7 +2813,7 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -2766,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -2778,7 +2837,7 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -2790,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2802,7 +2861,7 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2814,7 +2873,7 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2826,7 +2885,7 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2838,7 +2897,7 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -2850,7 +2909,7 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -2862,7 +2921,7 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -2874,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -2886,7 +2945,7 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -2904,7 +2963,7 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2916,7 +2975,7 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2928,7 +2987,7 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2940,7 +2999,7 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2952,7 +3011,7 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2964,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2976,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2988,7 +3047,7 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3000,7 +3059,7 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3012,7 +3071,7 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3024,7 +3083,7 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3036,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3048,7 +3107,7 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3060,7 +3119,7 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3072,7 +3131,7 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3084,7 +3143,7 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3096,7 +3155,7 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3108,7 +3167,7 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3120,7 +3179,7 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3134,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3146,7 +3205,7 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3158,7 +3217,7 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3176,7 +3235,7 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3188,7 +3247,7 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3200,7 +3259,7 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3212,7 +3271,7 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3224,7 +3283,7 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3236,7 +3295,7 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3248,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3260,7 +3319,7 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3272,7 +3331,7 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3284,7 +3343,7 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3296,7 +3355,7 @@
         <v>2</v>
       </c>
       <c r="E194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3314,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="E195">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3326,7 +3385,7 @@
         <v>2</v>
       </c>
       <c r="E196">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3338,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="E197">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3350,7 +3409,7 @@
         <v>2</v>
       </c>
       <c r="E198">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3362,7 +3421,7 @@
         <v>2</v>
       </c>
       <c r="E199">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3374,7 +3433,7 @@
         <v>2</v>
       </c>
       <c r="E200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3386,7 +3445,7 @@
         <v>2</v>
       </c>
       <c r="E201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3398,7 +3457,7 @@
         <v>2</v>
       </c>
       <c r="E202">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3410,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="E203">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3422,7 +3481,7 @@
         <v>2</v>
       </c>
       <c r="E204">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3434,7 +3493,7 @@
         <v>2</v>
       </c>
       <c r="E205">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3446,7 +3505,7 @@
         <v>2</v>
       </c>
       <c r="E206">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3458,7 +3517,7 @@
         <v>2</v>
       </c>
       <c r="E207">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3470,7 +3529,7 @@
         <v>2</v>
       </c>
       <c r="E208">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3482,7 +3541,7 @@
         <v>2</v>
       </c>
       <c r="E209">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3494,7 +3553,7 @@
         <v>2</v>
       </c>
       <c r="E210">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3512,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="E211">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3524,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="E212">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3536,7 +3595,7 @@
         <v>2</v>
       </c>
       <c r="E213">
-        <f t="shared" ref="E213:E276" si="3">SUM(C213*D213)</f>
+        <f t="shared" ref="E213:E276" si="6">SUM(C213*D213)</f>
         <v>8</v>
       </c>
     </row>
@@ -3548,7 +3607,7 @@
         <v>2</v>
       </c>
       <c r="E214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -3560,7 +3619,7 @@
         <v>2</v>
       </c>
       <c r="E215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -3572,7 +3631,7 @@
         <v>2</v>
       </c>
       <c r="E216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -3584,7 +3643,7 @@
         <v>2</v>
       </c>
       <c r="E217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -3596,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="E218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -3608,7 +3667,7 @@
         <v>2</v>
       </c>
       <c r="E219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3620,7 +3679,7 @@
         <v>2</v>
       </c>
       <c r="E220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3632,7 +3691,7 @@
         <v>2</v>
       </c>
       <c r="E221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3644,7 +3703,7 @@
         <v>2</v>
       </c>
       <c r="E222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3662,7 +3721,7 @@
         <v>2</v>
       </c>
       <c r="E223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -3674,7 +3733,7 @@
         <v>2</v>
       </c>
       <c r="E224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -3686,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="E225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -3698,7 +3757,7 @@
         <v>2</v>
       </c>
       <c r="E226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -3710,7 +3769,7 @@
         <v>2</v>
       </c>
       <c r="E227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -3722,7 +3781,7 @@
         <v>2</v>
       </c>
       <c r="E228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -3734,7 +3793,7 @@
         <v>2</v>
       </c>
       <c r="E229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3746,7 +3805,7 @@
         <v>2</v>
       </c>
       <c r="E230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3758,7 +3817,7 @@
         <v>2</v>
       </c>
       <c r="E231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3770,7 +3829,7 @@
         <v>2</v>
       </c>
       <c r="E232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3782,7 +3841,7 @@
         <v>2</v>
       </c>
       <c r="E233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3794,7 +3853,7 @@
         <v>2</v>
       </c>
       <c r="E234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -3806,7 +3865,7 @@
         <v>2</v>
       </c>
       <c r="E235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -3818,7 +3877,7 @@
         <v>2</v>
       </c>
       <c r="E236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -3830,7 +3889,7 @@
         <v>2</v>
       </c>
       <c r="E237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -3842,7 +3901,7 @@
         <v>2</v>
       </c>
       <c r="E238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -3854,7 +3913,7 @@
         <v>2</v>
       </c>
       <c r="E239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -3866,7 +3925,7 @@
         <v>2</v>
       </c>
       <c r="E240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -3878,7 +3937,7 @@
         <v>2</v>
       </c>
       <c r="E241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -3890,7 +3949,7 @@
         <v>2</v>
       </c>
       <c r="E242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -3902,7 +3961,7 @@
         <v>2</v>
       </c>
       <c r="E243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -3914,7 +3973,7 @@
         <v>2</v>
       </c>
       <c r="E244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -3926,7 +3985,7 @@
         <v>2</v>
       </c>
       <c r="E245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -3938,7 +3997,7 @@
         <v>2</v>
       </c>
       <c r="E246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -3956,7 +4015,7 @@
         <v>2</v>
       </c>
       <c r="E247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -3968,7 +4027,7 @@
         <v>2</v>
       </c>
       <c r="E248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -3980,7 +4039,7 @@
         <v>2</v>
       </c>
       <c r="E249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -3992,7 +4051,7 @@
         <v>2</v>
       </c>
       <c r="E250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -4004,7 +4063,7 @@
         <v>2</v>
       </c>
       <c r="E251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -4016,7 +4075,7 @@
         <v>2</v>
       </c>
       <c r="E252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -4028,7 +4087,7 @@
         <v>2</v>
       </c>
       <c r="E253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -4040,7 +4099,7 @@
         <v>2</v>
       </c>
       <c r="E254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -4058,7 +4117,7 @@
         <v>2</v>
       </c>
       <c r="E255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -4070,7 +4129,7 @@
         <v>2</v>
       </c>
       <c r="E256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -4082,7 +4141,7 @@
         <v>2</v>
       </c>
       <c r="E257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -4094,7 +4153,7 @@
         <v>2</v>
       </c>
       <c r="E258">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4106,7 +4165,7 @@
         <v>2</v>
       </c>
       <c r="E259">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4118,7 +4177,7 @@
         <v>2</v>
       </c>
       <c r="E260">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4130,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="E261">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4142,7 +4201,7 @@
         <v>2</v>
       </c>
       <c r="E262">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4154,7 +4213,7 @@
         <v>2</v>
       </c>
       <c r="E263">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4166,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="E264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4178,7 +4237,7 @@
         <v>2</v>
       </c>
       <c r="E265">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4190,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="E266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4202,7 +4261,7 @@
         <v>2</v>
       </c>
       <c r="E267">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4214,7 +4273,7 @@
         <v>2</v>
       </c>
       <c r="E268">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4226,7 +4285,7 @@
         <v>2</v>
       </c>
       <c r="E269">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -4238,7 +4297,7 @@
         <v>2</v>
       </c>
       <c r="E270">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -4250,7 +4309,7 @@
         <v>2</v>
       </c>
       <c r="E271">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -4262,7 +4321,7 @@
         <v>2</v>
       </c>
       <c r="E272">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -4274,7 +4333,7 @@
         <v>2</v>
       </c>
       <c r="E273">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -4286,7 +4345,7 @@
         <v>2</v>
       </c>
       <c r="E274">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -4304,7 +4363,7 @@
         <v>2</v>
       </c>
       <c r="E275">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -4316,7 +4375,7 @@
         <v>2</v>
       </c>
       <c r="E276">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -4328,7 +4387,7 @@
         <v>2</v>
       </c>
       <c r="E277">
-        <f t="shared" ref="E277:E340" si="4">SUM(C277*D277)</f>
+        <f t="shared" ref="E277:E340" si="7">SUM(C277*D277)</f>
         <v>8</v>
       </c>
     </row>
@@ -4340,7 +4399,7 @@
         <v>2</v>
       </c>
       <c r="E278">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -4358,7 +4417,7 @@
         <v>2</v>
       </c>
       <c r="E279">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -4370,7 +4429,7 @@
         <v>2</v>
       </c>
       <c r="E280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -4382,7 +4441,7 @@
         <v>2</v>
       </c>
       <c r="E281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -4394,7 +4453,7 @@
         <v>2</v>
       </c>
       <c r="E282">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4406,7 +4465,7 @@
         <v>2</v>
       </c>
       <c r="E283">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4418,7 +4477,7 @@
         <v>2</v>
       </c>
       <c r="E284">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -4430,7 +4489,7 @@
         <v>2</v>
       </c>
       <c r="E285">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -4442,7 +4501,7 @@
         <v>2</v>
       </c>
       <c r="E286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4454,7 +4513,7 @@
         <v>2</v>
       </c>
       <c r="E287">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -4466,7 +4525,7 @@
         <v>2</v>
       </c>
       <c r="E288">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -4478,7 +4537,7 @@
         <v>2</v>
       </c>
       <c r="E289">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4490,7 +4549,7 @@
         <v>2</v>
       </c>
       <c r="E290">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4502,7 +4561,7 @@
         <v>2</v>
       </c>
       <c r="E291">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4514,7 +4573,7 @@
         <v>2</v>
       </c>
       <c r="E292">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4527,7 +4586,7 @@
         <v>2</v>
       </c>
       <c r="E293">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4539,7 +4598,7 @@
         <v>2</v>
       </c>
       <c r="E294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4551,7 +4610,7 @@
         <v>2</v>
       </c>
       <c r="E295">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4563,7 +4622,7 @@
         <v>2</v>
       </c>
       <c r="E296">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4575,7 +4634,7 @@
         <v>2</v>
       </c>
       <c r="E297">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4593,7 +4652,7 @@
         <v>2</v>
       </c>
       <c r="E298">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -4605,7 +4664,7 @@
         <v>2</v>
       </c>
       <c r="E299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -4617,7 +4676,7 @@
         <v>2</v>
       </c>
       <c r="E300">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -4629,7 +4688,7 @@
         <v>2</v>
       </c>
       <c r="E301">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -4641,7 +4700,7 @@
         <v>2</v>
       </c>
       <c r="E302">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -4653,7 +4712,7 @@
         <v>2</v>
       </c>
       <c r="E303">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4665,7 +4724,7 @@
         <v>2</v>
       </c>
       <c r="E304">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4677,7 +4736,7 @@
         <v>2</v>
       </c>
       <c r="E305">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -4689,7 +4748,7 @@
         <v>2</v>
       </c>
       <c r="E306">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -4701,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="E307">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -4713,7 +4772,7 @@
         <v>2</v>
       </c>
       <c r="E308">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -4725,7 +4784,7 @@
         <v>2</v>
       </c>
       <c r="E309">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4737,7 +4796,7 @@
         <v>2</v>
       </c>
       <c r="E310">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -4755,7 +4814,7 @@
         <v>2</v>
       </c>
       <c r="E311">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -4767,7 +4826,7 @@
         <v>2</v>
       </c>
       <c r="E312">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -4779,7 +4838,7 @@
         <v>2</v>
       </c>
       <c r="E313">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4791,7 +4850,7 @@
         <v>2</v>
       </c>
       <c r="E314">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4803,7 +4862,7 @@
         <v>2</v>
       </c>
       <c r="E315">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -4815,7 +4874,7 @@
         <v>2</v>
       </c>
       <c r="E316">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -4827,7 +4886,7 @@
         <v>2</v>
       </c>
       <c r="E317">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -4839,7 +4898,7 @@
         <v>2</v>
       </c>
       <c r="E318">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -4851,7 +4910,7 @@
         <v>2</v>
       </c>
       <c r="E319">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -4863,7 +4922,7 @@
         <v>2</v>
       </c>
       <c r="E320">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -4875,7 +4934,7 @@
         <v>2</v>
       </c>
       <c r="E321">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -4887,7 +4946,7 @@
         <v>2</v>
       </c>
       <c r="E322">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -4899,7 +4958,7 @@
         <v>2</v>
       </c>
       <c r="E323">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -4911,7 +4970,7 @@
         <v>2</v>
       </c>
       <c r="E324">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -4923,7 +4982,7 @@
         <v>2</v>
       </c>
       <c r="E325">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -4935,7 +4994,7 @@
         <v>2</v>
       </c>
       <c r="E326">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -4947,7 +5006,7 @@
         <v>2</v>
       </c>
       <c r="E327">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -4959,7 +5018,7 @@
         <v>2</v>
       </c>
       <c r="E328">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -4971,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="E329">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -4983,7 +5042,7 @@
         <v>2</v>
       </c>
       <c r="E330">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -4995,7 +5054,7 @@
         <v>2</v>
       </c>
       <c r="E331">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -5007,7 +5066,7 @@
         <v>2</v>
       </c>
       <c r="E332">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -5025,7 +5084,7 @@
         <v>2</v>
       </c>
       <c r="E333">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -5037,7 +5096,7 @@
         <v>2</v>
       </c>
       <c r="E334">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -5049,7 +5108,7 @@
         <v>2</v>
       </c>
       <c r="E335">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -5061,7 +5120,7 @@
         <v>2</v>
       </c>
       <c r="E336">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -5073,7 +5132,7 @@
         <v>2</v>
       </c>
       <c r="E337">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -5085,7 +5144,7 @@
         <v>2</v>
       </c>
       <c r="E338">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -5097,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="E339">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -5109,7 +5168,7 @@
         <v>2</v>
       </c>
       <c r="E340">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -5121,7 +5180,7 @@
         <v>2</v>
       </c>
       <c r="E341">
-        <f t="shared" ref="E341:E345" si="5">SUM(C341*D341)</f>
+        <f t="shared" ref="E341:E345" si="8">SUM(C341*D341)</f>
         <v>2</v>
       </c>
     </row>
@@ -5133,7 +5192,7 @@
         <v>2</v>
       </c>
       <c r="E342">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -5145,7 +5204,7 @@
         <v>2</v>
       </c>
       <c r="E343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -5157,7 +5216,7 @@
         <v>2</v>
       </c>
       <c r="E344">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -5169,7 +5228,7 @@
         <v>2</v>
       </c>
       <c r="E345">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
@@ -5229,7 +5288,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <f>C2*D2</f>
+        <f t="shared" ref="E2:E33" si="0">C2*D2</f>
         <v>6</v>
       </c>
     </row>
@@ -5241,7 +5300,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f>C3*D3</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -5253,7 +5312,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f>C4*D4</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5265,7 +5324,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <f>C5*D5</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5277,7 +5336,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <f>C6*D6</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -5289,7 +5348,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <f>C7*D7</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5301,7 +5360,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f>C8*D8</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5313,7 +5372,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <f>C9*D9</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -5325,7 +5384,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <f>C10*D10</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -5337,7 +5396,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <f>C11*D11</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -5349,7 +5408,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f>C12*D12</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5361,7 +5420,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <f>C13*D13</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -5373,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <f>C14*D14</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5385,7 +5444,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f>C15*D15</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -5397,7 +5456,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <f>C16*D16</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -5409,7 +5468,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <f>C17*D17</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -5421,7 +5480,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <f>C18*D18</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5433,7 +5492,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <f>C19*D19</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5445,7 +5504,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <f>C20*D20</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5457,7 +5516,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <f>C21*D21</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -5469,7 +5528,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <f>C22*D22</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -5487,7 +5546,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <f>C23*D23</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5499,7 +5558,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <f>C24*D24</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -5511,7 +5570,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <f>C25*D25</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5523,7 +5582,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <f>C26*D26</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5535,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <f>C27*D27</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5547,7 +5606,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <f>C28*D28</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -5559,7 +5618,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <f>C29*D29</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5571,7 +5630,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <f>C30*D30</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -5583,7 +5642,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <f>C31*D31</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -5595,7 +5654,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <f>C32*D32</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5607,7 +5666,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <f>C33*D33</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5619,7 +5678,7 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <f>C34*D34</f>
+        <f t="shared" ref="E34:E65" si="1">C34*D34</f>
         <v>8</v>
       </c>
     </row>
@@ -5631,7 +5690,7 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <f>C35*D35</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5643,7 +5702,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <f>C36*D36</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5655,7 +5714,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <f>C37*D37</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -5667,7 +5726,7 @@
         <v>2</v>
       </c>
       <c r="E38">
-        <f>C38*D38</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -5679,7 +5738,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <f>C39*D39</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5691,7 +5750,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <f>C40*D40</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5703,7 +5762,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <f>C41*D41</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5715,7 +5774,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <f>C42*D42</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -5727,7 +5786,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <f>C43*D43</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -5745,7 +5804,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <f>C44*D44</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -5757,7 +5816,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <f>C45*D45</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -5769,7 +5828,7 @@
         <v>2</v>
       </c>
       <c r="E46">
-        <f>C46*D46</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5781,7 +5840,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <f>C47*D47</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5793,7 +5852,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <f>C48*D48</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -5805,7 +5864,7 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <f>C49*D49</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5817,7 +5876,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <f>C50*D50</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5829,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <f>C51*D51</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -5841,7 +5900,7 @@
         <v>2</v>
       </c>
       <c r="E52">
-        <f>C52*D52</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5853,7 +5912,7 @@
         <v>2</v>
       </c>
       <c r="E53">
-        <f>C53*D53</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5865,7 +5924,7 @@
         <v>2</v>
       </c>
       <c r="E54">
-        <f>C54*D54</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5877,7 +5936,7 @@
         <v>2</v>
       </c>
       <c r="E55">
-        <f>C55*D55</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5889,7 +5948,7 @@
         <v>2</v>
       </c>
       <c r="E56">
-        <f>C56*D56</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5901,7 +5960,7 @@
         <v>2</v>
       </c>
       <c r="E57">
-        <f>C57*D57</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5913,7 +5972,7 @@
         <v>2</v>
       </c>
       <c r="E58">
-        <f>C58*D58</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -5925,7 +5984,7 @@
         <v>2</v>
       </c>
       <c r="E59">
-        <f>C59*D59</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -5937,7 +5996,7 @@
         <v>2</v>
       </c>
       <c r="E60">
-        <f>C60*D60</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5949,7 +6008,7 @@
         <v>2</v>
       </c>
       <c r="E61">
-        <f>C61*D61</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -5961,7 +6020,7 @@
         <v>2</v>
       </c>
       <c r="E62">
-        <f>C62*D62</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -5973,7 +6032,7 @@
         <v>2</v>
       </c>
       <c r="E63">
-        <f>C63*D63</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -5985,7 +6044,7 @@
         <v>2</v>
       </c>
       <c r="E64">
-        <f>C64*D64</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -6003,7 +6062,7 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <f>C65*D65</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -6015,7 +6074,7 @@
         <v>2</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="0">C66*D66</f>
+        <f t="shared" ref="E66:E129" si="2">C66*D66</f>
         <v>10</v>
       </c>
     </row>
@@ -6027,7 +6086,7 @@
         <v>2</v>
       </c>
       <c r="E67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6039,7 +6098,7 @@
         <v>2</v>
       </c>
       <c r="E68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6051,7 +6110,7 @@
         <v>2</v>
       </c>
       <c r="E69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -6063,7 +6122,7 @@
         <v>2</v>
       </c>
       <c r="E70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -6075,7 +6134,7 @@
         <v>2</v>
       </c>
       <c r="E71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6087,7 +6146,7 @@
         <v>2</v>
       </c>
       <c r="E72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6099,7 +6158,7 @@
         <v>2</v>
       </c>
       <c r="E73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6111,7 +6170,7 @@
         <v>2</v>
       </c>
       <c r="E74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6123,7 +6182,7 @@
         <v>2</v>
       </c>
       <c r="E75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -6135,7 +6194,7 @@
         <v>2</v>
       </c>
       <c r="E76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6147,7 +6206,7 @@
         <v>2</v>
       </c>
       <c r="E77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -6159,7 +6218,7 @@
         <v>2</v>
       </c>
       <c r="E78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -6171,7 +6230,7 @@
         <v>2</v>
       </c>
       <c r="E79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6183,7 +6242,7 @@
         <v>2</v>
       </c>
       <c r="E80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6195,7 +6254,7 @@
         <v>2</v>
       </c>
       <c r="E81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6207,7 +6266,7 @@
         <v>2</v>
       </c>
       <c r="E82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6219,7 +6278,7 @@
         <v>2</v>
       </c>
       <c r="E83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6231,7 +6290,7 @@
         <v>2</v>
       </c>
       <c r="E84">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6249,7 +6308,7 @@
         <v>2</v>
       </c>
       <c r="E85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6261,7 +6320,7 @@
         <v>2</v>
       </c>
       <c r="E86">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6273,7 +6332,7 @@
         <v>2</v>
       </c>
       <c r="E87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6285,7 +6344,7 @@
         <v>2</v>
       </c>
       <c r="E88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6297,7 +6356,7 @@
         <v>2</v>
       </c>
       <c r="E89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6309,7 +6368,7 @@
         <v>2</v>
       </c>
       <c r="E90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6321,7 +6380,7 @@
         <v>2</v>
       </c>
       <c r="E91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6333,7 +6392,7 @@
         <v>2</v>
       </c>
       <c r="E92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6345,7 +6404,7 @@
         <v>2</v>
       </c>
       <c r="E93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6357,7 +6416,7 @@
         <v>2</v>
       </c>
       <c r="E94">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6369,7 +6428,7 @@
         <v>2</v>
       </c>
       <c r="E95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6381,7 +6440,7 @@
         <v>2</v>
       </c>
       <c r="E96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6393,7 +6452,7 @@
         <v>2</v>
       </c>
       <c r="E97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6405,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="E98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6417,7 +6476,7 @@
         <v>2</v>
       </c>
       <c r="E99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6429,7 +6488,7 @@
         <v>2</v>
       </c>
       <c r="E100">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6441,7 +6500,7 @@
         <v>2</v>
       </c>
       <c r="E101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6453,7 +6512,7 @@
         <v>2</v>
       </c>
       <c r="E102">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6465,7 +6524,7 @@
         <v>2</v>
       </c>
       <c r="E103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6477,7 +6536,7 @@
         <v>2</v>
       </c>
       <c r="E104">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -6489,7 +6548,7 @@
         <v>2</v>
       </c>
       <c r="E105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6507,7 +6566,7 @@
         <v>2</v>
       </c>
       <c r="E106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6519,7 +6578,7 @@
         <v>2</v>
       </c>
       <c r="E107">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6531,7 +6590,7 @@
         <v>2</v>
       </c>
       <c r="E108">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6543,7 +6602,7 @@
         <v>2</v>
       </c>
       <c r="E109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6555,7 +6614,7 @@
         <v>2</v>
       </c>
       <c r="E110">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6567,7 +6626,7 @@
         <v>2</v>
       </c>
       <c r="E111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6579,7 +6638,7 @@
         <v>2</v>
       </c>
       <c r="E112">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6591,7 +6650,7 @@
         <v>2</v>
       </c>
       <c r="E113">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6603,7 +6662,7 @@
         <v>2</v>
       </c>
       <c r="E114">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6615,7 +6674,7 @@
         <v>2</v>
       </c>
       <c r="E115">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -6627,7 +6686,7 @@
         <v>2</v>
       </c>
       <c r="E116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6639,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="E117">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6651,7 +6710,7 @@
         <v>2</v>
       </c>
       <c r="E118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6663,7 +6722,7 @@
         <v>2</v>
       </c>
       <c r="E119">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6675,7 +6734,7 @@
         <v>2</v>
       </c>
       <c r="E120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6687,7 +6746,7 @@
         <v>2</v>
       </c>
       <c r="E121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6699,7 +6758,7 @@
         <v>2</v>
       </c>
       <c r="E122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6711,7 +6770,7 @@
         <v>2</v>
       </c>
       <c r="E123">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -6723,7 +6782,7 @@
         <v>2</v>
       </c>
       <c r="E124">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6735,7 +6794,7 @@
         <v>2</v>
       </c>
       <c r="E125">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6747,7 +6806,7 @@
         <v>2</v>
       </c>
       <c r="E126">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6765,7 +6824,7 @@
         <v>2</v>
       </c>
       <c r="E127">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6777,7 +6836,7 @@
         <v>2</v>
       </c>
       <c r="E128">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6789,7 +6848,7 @@
         <v>2</v>
       </c>
       <c r="E129">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -6801,7 +6860,7 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="1">C130*D130</f>
+        <f t="shared" ref="E130:E193" si="3">C130*D130</f>
         <v>8</v>
       </c>
     </row>
@@ -6813,7 +6872,7 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -6825,7 +6884,7 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -6837,7 +6896,7 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -6849,7 +6908,7 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -6861,7 +6920,7 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -6873,7 +6932,7 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -6885,7 +6944,7 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -6897,7 +6956,7 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -6909,7 +6968,7 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -6921,7 +6980,7 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -6933,7 +6992,7 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -6945,7 +7004,7 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -6957,7 +7016,7 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -6969,7 +7028,7 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -6981,7 +7040,7 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -6993,7 +7052,7 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7005,7 +7064,7 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7017,7 +7076,7 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7035,7 +7094,7 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7047,7 +7106,7 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7059,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7071,7 +7130,7 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7083,7 +7142,7 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7095,7 +7154,7 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7107,7 +7166,7 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7119,7 +7178,7 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7131,7 +7190,7 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7143,7 +7202,7 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7155,7 +7214,7 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7167,7 +7226,7 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7179,7 +7238,7 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7191,7 +7250,7 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7203,7 +7262,7 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7215,7 +7274,7 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7227,7 +7286,7 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7239,7 +7298,7 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7251,7 +7310,7 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7263,7 +7322,7 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7275,7 +7334,7 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7293,7 +7352,7 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7305,7 +7364,7 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7317,7 +7376,7 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7329,7 +7388,7 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7341,7 +7400,7 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7353,7 +7412,7 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7365,7 +7424,7 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7377,7 +7436,7 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7389,7 +7448,7 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7401,7 +7460,7 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7413,7 +7472,7 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7425,7 +7484,7 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7437,7 +7496,7 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7449,7 +7508,7 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7461,7 +7520,7 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7473,7 +7532,7 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7485,7 +7544,7 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7497,7 +7556,7 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7509,7 +7568,7 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7521,7 +7580,7 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7533,7 +7592,7 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7551,7 +7610,7 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7563,7 +7622,7 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -7575,7 +7634,7 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -7587,7 +7646,7 @@
         <v>2</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E257" si="2">C194*D194</f>
+        <f t="shared" ref="E194:E257" si="4">C194*D194</f>
         <v>8</v>
       </c>
     </row>
@@ -7599,7 +7658,7 @@
         <v>2</v>
       </c>
       <c r="E195">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -7611,7 +7670,7 @@
         <v>2</v>
       </c>
       <c r="E196">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -7623,7 +7682,7 @@
         <v>2</v>
       </c>
       <c r="E197">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -7635,7 +7694,7 @@
         <v>2</v>
       </c>
       <c r="E198">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -7647,7 +7706,7 @@
         <v>2</v>
       </c>
       <c r="E199">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -7659,7 +7718,7 @@
         <v>2</v>
       </c>
       <c r="E200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -7671,7 +7730,7 @@
         <v>2</v>
       </c>
       <c r="E201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -7683,7 +7742,7 @@
         <v>2</v>
       </c>
       <c r="E202">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -7695,7 +7754,7 @@
         <v>2</v>
       </c>
       <c r="E203">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -7707,7 +7766,7 @@
         <v>2</v>
       </c>
       <c r="E204">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -7719,7 +7778,7 @@
         <v>2</v>
       </c>
       <c r="E205">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -7731,7 +7790,7 @@
         <v>2</v>
       </c>
       <c r="E206">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -7743,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="E207">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -7755,7 +7814,7 @@
         <v>2</v>
       </c>
       <c r="E208">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -7767,7 +7826,7 @@
         <v>2</v>
       </c>
       <c r="E209">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -7779,7 +7838,7 @@
         <v>2</v>
       </c>
       <c r="E210">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -7791,7 +7850,7 @@
         <v>2</v>
       </c>
       <c r="E211">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -7809,7 +7868,7 @@
         <v>2</v>
       </c>
       <c r="E212">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -7821,7 +7880,7 @@
         <v>2</v>
       </c>
       <c r="E213">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -7833,7 +7892,7 @@
         <v>2</v>
       </c>
       <c r="E214">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -7845,7 +7904,7 @@
         <v>2</v>
       </c>
       <c r="E215">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -7857,7 +7916,7 @@
         <v>2</v>
       </c>
       <c r="E216">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -7869,7 +7928,7 @@
         <v>2</v>
       </c>
       <c r="E217">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -7881,7 +7940,7 @@
         <v>2</v>
       </c>
       <c r="E218">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -7893,7 +7952,7 @@
         <v>2</v>
       </c>
       <c r="E219">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -7905,7 +7964,7 @@
         <v>2</v>
       </c>
       <c r="E220">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -7917,7 +7976,7 @@
         <v>2</v>
       </c>
       <c r="E221">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -7929,7 +7988,7 @@
         <v>2</v>
       </c>
       <c r="E222">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -7941,7 +8000,7 @@
         <v>2</v>
       </c>
       <c r="E223">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -7953,7 +8012,7 @@
         <v>2</v>
       </c>
       <c r="E224">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -7965,7 +8024,7 @@
         <v>2</v>
       </c>
       <c r="E225">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -7977,7 +8036,7 @@
         <v>2</v>
       </c>
       <c r="E226">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -7989,7 +8048,7 @@
         <v>2</v>
       </c>
       <c r="E227">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -8001,7 +8060,7 @@
         <v>2</v>
       </c>
       <c r="E228">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -8013,7 +8072,7 @@
         <v>2</v>
       </c>
       <c r="E229">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -8025,7 +8084,7 @@
         <v>2</v>
       </c>
       <c r="E230">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -8037,7 +8096,7 @@
         <v>2</v>
       </c>
       <c r="E231">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -8049,7 +8108,7 @@
         <v>2</v>
       </c>
       <c r="E232">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -8067,7 +8126,7 @@
         <v>2</v>
       </c>
       <c r="E233">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -8079,7 +8138,7 @@
         <v>2</v>
       </c>
       <c r="E234">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -8091,7 +8150,7 @@
         <v>2</v>
       </c>
       <c r="E235">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -8103,7 +8162,7 @@
         <v>2</v>
       </c>
       <c r="E236">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -8115,7 +8174,7 @@
         <v>2</v>
       </c>
       <c r="E237">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -8127,7 +8186,7 @@
         <v>2</v>
       </c>
       <c r="E238">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -8139,7 +8198,7 @@
         <v>2</v>
       </c>
       <c r="E239">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -8151,7 +8210,7 @@
         <v>2</v>
       </c>
       <c r="E240">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -8163,7 +8222,7 @@
         <v>2</v>
       </c>
       <c r="E241">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -8175,7 +8234,7 @@
         <v>2</v>
       </c>
       <c r="E242">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -8187,7 +8246,7 @@
         <v>2</v>
       </c>
       <c r="E243">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -8199,7 +8258,7 @@
         <v>2</v>
       </c>
       <c r="E244">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -8211,7 +8270,7 @@
         <v>2</v>
       </c>
       <c r="E245">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -8223,7 +8282,7 @@
         <v>2</v>
       </c>
       <c r="E246">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -8235,7 +8294,7 @@
         <v>2</v>
       </c>
       <c r="E247">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -8247,7 +8306,7 @@
         <v>2</v>
       </c>
       <c r="E248">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -8259,7 +8318,7 @@
         <v>2</v>
       </c>
       <c r="E249">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -8271,7 +8330,7 @@
         <v>2</v>
       </c>
       <c r="E250">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -8283,7 +8342,7 @@
         <v>2</v>
       </c>
       <c r="E251">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -8295,7 +8354,7 @@
         <v>2</v>
       </c>
       <c r="E252">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -8307,7 +8366,7 @@
         <v>2</v>
       </c>
       <c r="E253">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -8325,7 +8384,7 @@
         <v>2</v>
       </c>
       <c r="E254">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -8337,7 +8396,7 @@
         <v>2</v>
       </c>
       <c r="E255">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -8349,7 +8408,7 @@
         <v>2</v>
       </c>
       <c r="E256">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -8361,7 +8420,7 @@
         <v>2</v>
       </c>
       <c r="E257">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -8373,7 +8432,7 @@
         <v>2</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E274" si="3">C258*D258</f>
+        <f t="shared" ref="E258:E274" si="5">C258*D258</f>
         <v>6</v>
       </c>
     </row>
@@ -8385,7 +8444,7 @@
         <v>2</v>
       </c>
       <c r="E259">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -8397,7 +8456,7 @@
         <v>2</v>
       </c>
       <c r="E260">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -8409,7 +8468,7 @@
         <v>2</v>
       </c>
       <c r="E261">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -8421,7 +8480,7 @@
         <v>2</v>
       </c>
       <c r="E262">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -8433,7 +8492,7 @@
         <v>2</v>
       </c>
       <c r="E263">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -8445,7 +8504,7 @@
         <v>2</v>
       </c>
       <c r="E264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -8457,7 +8516,7 @@
         <v>2</v>
       </c>
       <c r="E265">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -8469,7 +8528,7 @@
         <v>2</v>
       </c>
       <c r="E266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -8481,7 +8540,7 @@
         <v>2</v>
       </c>
       <c r="E267">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -8493,7 +8552,7 @@
         <v>2</v>
       </c>
       <c r="E268">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -8505,7 +8564,7 @@
         <v>2</v>
       </c>
       <c r="E269">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -8517,7 +8576,7 @@
         <v>2</v>
       </c>
       <c r="E270">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -8529,7 +8588,7 @@
         <v>2</v>
       </c>
       <c r="E271">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -8541,7 +8600,7 @@
         <v>2</v>
       </c>
       <c r="E272">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -8553,7 +8612,7 @@
         <v>2</v>
       </c>
       <c r="E273">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -8565,7 +8624,7 @@
         <v>2</v>
       </c>
       <c r="E274">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -8595,7 +8654,7 @@
         <v>2</v>
       </c>
       <c r="E276">
-        <f t="shared" ref="E276:E339" si="4">SUM(C276*D276)</f>
+        <f t="shared" ref="E276:E339" si="6">SUM(C276*D276)</f>
         <v>6</v>
       </c>
     </row>
@@ -8607,7 +8666,7 @@
         <v>2</v>
       </c>
       <c r="E277">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -8619,7 +8678,7 @@
         <v>2</v>
       </c>
       <c r="E278">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -8631,7 +8690,7 @@
         <v>2</v>
       </c>
       <c r="E279">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -8643,7 +8702,7 @@
         <v>2</v>
       </c>
       <c r="E280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -8655,7 +8714,7 @@
         <v>2</v>
       </c>
       <c r="E281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -8667,7 +8726,7 @@
         <v>2</v>
       </c>
       <c r="E282">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -8679,7 +8738,7 @@
         <v>2</v>
       </c>
       <c r="E283">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -8691,7 +8750,7 @@
         <v>2</v>
       </c>
       <c r="E284">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -8703,7 +8762,7 @@
         <v>2</v>
       </c>
       <c r="E285">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -8715,7 +8774,7 @@
         <v>2</v>
       </c>
       <c r="E286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -8727,7 +8786,7 @@
         <v>2</v>
       </c>
       <c r="E287">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
     </row>
@@ -8739,7 +8798,7 @@
         <v>2</v>
       </c>
       <c r="E288">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
     </row>
@@ -8757,7 +8816,7 @@
         <v>2</v>
       </c>
       <c r="E289">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -8769,7 +8828,7 @@
         <v>2</v>
       </c>
       <c r="E290">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -8781,7 +8840,7 @@
         <v>2</v>
       </c>
       <c r="E291">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -8793,7 +8852,7 @@
         <v>2</v>
       </c>
       <c r="E292">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -8805,7 +8864,7 @@
         <v>2</v>
       </c>
       <c r="E293">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -8817,7 +8876,7 @@
         <v>2</v>
       </c>
       <c r="E294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -8829,7 +8888,7 @@
         <v>2</v>
       </c>
       <c r="E295">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -8841,7 +8900,7 @@
         <v>2</v>
       </c>
       <c r="E296">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -8853,7 +8912,7 @@
         <v>2</v>
       </c>
       <c r="E297">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -8865,7 +8924,7 @@
         <v>2</v>
       </c>
       <c r="E298">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -8877,7 +8936,7 @@
         <v>2</v>
       </c>
       <c r="E299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -8889,7 +8948,7 @@
         <v>2</v>
       </c>
       <c r="E300">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -8901,7 +8960,7 @@
         <v>2</v>
       </c>
       <c r="E301">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -8913,7 +8972,7 @@
         <v>2</v>
       </c>
       <c r="E302">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -8925,7 +8984,7 @@
         <v>2</v>
       </c>
       <c r="E303">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -8937,7 +8996,7 @@
         <v>2</v>
       </c>
       <c r="E304">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -8949,7 +9008,7 @@
         <v>2</v>
       </c>
       <c r="E305">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -8961,7 +9020,7 @@
         <v>2</v>
       </c>
       <c r="E306">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -8973,7 +9032,7 @@
         <v>2</v>
       </c>
       <c r="E307">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -8985,7 +9044,7 @@
         <v>2</v>
       </c>
       <c r="E308">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -8997,7 +9056,7 @@
         <v>2</v>
       </c>
       <c r="E309">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -9009,7 +9068,7 @@
         <v>2</v>
       </c>
       <c r="E310">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -9021,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="E311">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -9033,7 +9092,7 @@
         <v>2</v>
       </c>
       <c r="E312">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -9045,7 +9104,7 @@
         <v>2</v>
       </c>
       <c r="E313">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -9057,7 +9116,7 @@
         <v>2</v>
       </c>
       <c r="E314">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -9069,7 +9128,7 @@
         <v>2</v>
       </c>
       <c r="E315">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -9081,7 +9140,7 @@
         <v>2</v>
       </c>
       <c r="E316">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -9093,7 +9152,7 @@
         <v>2</v>
       </c>
       <c r="E317">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -9105,7 +9164,7 @@
         <v>2</v>
       </c>
       <c r="E318">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -9117,7 +9176,7 @@
         <v>2</v>
       </c>
       <c r="E319">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -9129,7 +9188,7 @@
         <v>2</v>
       </c>
       <c r="E320">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -9141,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="E321">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -9153,7 +9212,7 @@
         <v>2</v>
       </c>
       <c r="E322">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -9165,7 +9224,7 @@
         <v>2</v>
       </c>
       <c r="E323">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -9177,7 +9236,7 @@
         <v>2</v>
       </c>
       <c r="E324">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -9189,7 +9248,7 @@
         <v>2</v>
       </c>
       <c r="E325">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -9201,7 +9260,7 @@
         <v>2</v>
       </c>
       <c r="E326">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -9213,7 +9272,7 @@
         <v>2</v>
       </c>
       <c r="E327">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -9225,7 +9284,7 @@
         <v>2</v>
       </c>
       <c r="E328">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -9237,7 +9296,7 @@
         <v>2</v>
       </c>
       <c r="E329">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -9255,7 +9314,7 @@
         <v>2</v>
       </c>
       <c r="E330">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -9267,7 +9326,7 @@
         <v>2</v>
       </c>
       <c r="E331">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -9279,7 +9338,7 @@
         <v>2</v>
       </c>
       <c r="E332">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -9291,7 +9350,7 @@
         <v>2</v>
       </c>
       <c r="E333">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -9303,7 +9362,7 @@
         <v>2</v>
       </c>
       <c r="E334">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -9315,7 +9374,7 @@
         <v>2</v>
       </c>
       <c r="E335">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -9327,7 +9386,7 @@
         <v>2</v>
       </c>
       <c r="E336">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -9339,7 +9398,7 @@
         <v>2</v>
       </c>
       <c r="E337">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -9351,7 +9410,7 @@
         <v>2</v>
       </c>
       <c r="E338">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -9363,7 +9422,7 @@
         <v>2</v>
       </c>
       <c r="E339">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -9375,7 +9434,7 @@
         <v>2</v>
       </c>
       <c r="E340">
-        <f t="shared" ref="E340:E403" si="5">SUM(C340*D340)</f>
+        <f t="shared" ref="E340:E403" si="7">SUM(C340*D340)</f>
         <v>6</v>
       </c>
     </row>
@@ -9393,7 +9452,7 @@
         <v>2</v>
       </c>
       <c r="E341">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -9405,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="E342">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -9417,7 +9476,7 @@
         <v>2</v>
       </c>
       <c r="E343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -9429,7 +9488,7 @@
         <v>2</v>
       </c>
       <c r="E344">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -9441,7 +9500,7 @@
         <v>2</v>
       </c>
       <c r="E345">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -9453,7 +9512,7 @@
         <v>2</v>
       </c>
       <c r="E346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -9465,7 +9524,7 @@
         <v>2</v>
       </c>
       <c r="E347">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -9477,7 +9536,7 @@
         <v>2</v>
       </c>
       <c r="E348">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -9489,7 +9548,7 @@
         <v>2</v>
       </c>
       <c r="E349">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -9501,7 +9560,7 @@
         <v>2</v>
       </c>
       <c r="E350">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -9513,7 +9572,7 @@
         <v>2</v>
       </c>
       <c r="E351">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -9525,7 +9584,7 @@
         <v>2</v>
       </c>
       <c r="E352">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -9537,7 +9596,7 @@
         <v>2</v>
       </c>
       <c r="E353">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -9549,7 +9608,7 @@
         <v>2</v>
       </c>
       <c r="E354">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -9561,7 +9620,7 @@
         <v>2</v>
       </c>
       <c r="E355">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -9573,7 +9632,7 @@
         <v>2</v>
       </c>
       <c r="E356">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -9585,7 +9644,7 @@
         <v>2</v>
       </c>
       <c r="E357">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -9597,7 +9656,7 @@
         <v>2</v>
       </c>
       <c r="E358">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -9609,7 +9668,7 @@
         <v>2</v>
       </c>
       <c r="E359">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -9621,7 +9680,7 @@
         <v>2</v>
       </c>
       <c r="E360">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -9633,7 +9692,7 @@
         <v>2</v>
       </c>
       <c r="E361">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -9651,7 +9710,7 @@
         <v>2</v>
       </c>
       <c r="E362">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -9663,7 +9722,7 @@
         <v>2</v>
       </c>
       <c r="E363">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -9675,7 +9734,7 @@
         <v>2</v>
       </c>
       <c r="E364">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -9687,7 +9746,7 @@
         <v>2</v>
       </c>
       <c r="E365">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -9699,7 +9758,7 @@
         <v>2</v>
       </c>
       <c r="E366">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -9711,7 +9770,7 @@
         <v>2</v>
       </c>
       <c r="E367">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -9723,7 +9782,7 @@
         <v>2</v>
       </c>
       <c r="E368">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -9735,7 +9794,7 @@
         <v>2</v>
       </c>
       <c r="E369">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -9747,7 +9806,7 @@
         <v>2</v>
       </c>
       <c r="E370">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -9759,7 +9818,7 @@
         <v>2</v>
       </c>
       <c r="E371">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -9771,7 +9830,7 @@
         <v>2</v>
       </c>
       <c r="E372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -9783,7 +9842,7 @@
         <v>2</v>
       </c>
       <c r="E373">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -9795,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="E374">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -9807,7 +9866,7 @@
         <v>2</v>
       </c>
       <c r="E375">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -9819,7 +9878,7 @@
         <v>2</v>
       </c>
       <c r="E376">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -9831,7 +9890,7 @@
         <v>2</v>
       </c>
       <c r="E377">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -9843,7 +9902,7 @@
         <v>2</v>
       </c>
       <c r="E378">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -9855,7 +9914,7 @@
         <v>2</v>
       </c>
       <c r="E379">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -9867,7 +9926,7 @@
         <v>2</v>
       </c>
       <c r="E380">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -9879,7 +9938,7 @@
         <v>2</v>
       </c>
       <c r="E381">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -9891,7 +9950,7 @@
         <v>2</v>
       </c>
       <c r="E382">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -9903,7 +9962,7 @@
         <v>2</v>
       </c>
       <c r="E383">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -9915,7 +9974,7 @@
         <v>2</v>
       </c>
       <c r="E384">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -9927,7 +9986,7 @@
         <v>2</v>
       </c>
       <c r="E385">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -9939,7 +9998,7 @@
         <v>2</v>
       </c>
       <c r="E386">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -9957,7 +10016,7 @@
         <v>2</v>
       </c>
       <c r="E387">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -9969,7 +10028,7 @@
         <v>2</v>
       </c>
       <c r="E388">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -9981,7 +10040,7 @@
         <v>2</v>
       </c>
       <c r="E389">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -9993,7 +10052,7 @@
         <v>2</v>
       </c>
       <c r="E390">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -10005,7 +10064,7 @@
         <v>2</v>
       </c>
       <c r="E391">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -10017,7 +10076,7 @@
         <v>2</v>
       </c>
       <c r="E392">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -10029,7 +10088,7 @@
         <v>2</v>
       </c>
       <c r="E393">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -10041,7 +10100,7 @@
         <v>2</v>
       </c>
       <c r="E394">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -10053,7 +10112,7 @@
         <v>2</v>
       </c>
       <c r="E395">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -10065,7 +10124,7 @@
         <v>2</v>
       </c>
       <c r="E396">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -10077,7 +10136,7 @@
         <v>2</v>
       </c>
       <c r="E397">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -10089,7 +10148,7 @@
         <v>2</v>
       </c>
       <c r="E398">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -10101,7 +10160,7 @@
         <v>2</v>
       </c>
       <c r="E399">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -10113,7 +10172,7 @@
         <v>2</v>
       </c>
       <c r="E400">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -10125,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="E401">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -10137,7 +10196,7 @@
         <v>2</v>
       </c>
       <c r="E402">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -10149,7 +10208,7 @@
         <v>2</v>
       </c>
       <c r="E403">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -10161,7 +10220,7 @@
         <v>2</v>
       </c>
       <c r="E404">
-        <f t="shared" ref="E404:E467" si="6">SUM(C404*D404)</f>
+        <f t="shared" ref="E404:E467" si="8">SUM(C404*D404)</f>
         <v>4</v>
       </c>
     </row>
@@ -10173,7 +10232,7 @@
         <v>2</v>
       </c>
       <c r="E405">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -10185,7 +10244,7 @@
         <v>2</v>
       </c>
       <c r="E406">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -10197,7 +10256,7 @@
         <v>2</v>
       </c>
       <c r="E407">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -10209,7 +10268,7 @@
         <v>2</v>
       </c>
       <c r="E408">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -10221,7 +10280,7 @@
         <v>2</v>
       </c>
       <c r="E409">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -10233,7 +10292,7 @@
         <v>2</v>
       </c>
       <c r="E410">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -10245,7 +10304,7 @@
         <v>2</v>
       </c>
       <c r="E411">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -10257,7 +10316,7 @@
         <v>2</v>
       </c>
       <c r="E412">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -10269,7 +10328,7 @@
         <v>2</v>
       </c>
       <c r="E413">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -10281,7 +10340,7 @@
         <v>2</v>
       </c>
       <c r="E414">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -10293,7 +10352,7 @@
         <v>2</v>
       </c>
       <c r="E415">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -10305,7 +10364,7 @@
         <v>2</v>
       </c>
       <c r="E416">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -10323,7 +10382,7 @@
         <v>2</v>
       </c>
       <c r="E417">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -10335,7 +10394,7 @@
         <v>2</v>
       </c>
       <c r="E418">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -10347,7 +10406,7 @@
         <v>2</v>
       </c>
       <c r="E419">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -10359,7 +10418,7 @@
         <v>2</v>
       </c>
       <c r="E420">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -10371,7 +10430,7 @@
         <v>2</v>
       </c>
       <c r="E421">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -10383,7 +10442,7 @@
         <v>2</v>
       </c>
       <c r="E422">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -10395,7 +10454,7 @@
         <v>2</v>
       </c>
       <c r="E423">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -10407,7 +10466,7 @@
         <v>2</v>
       </c>
       <c r="E424">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -10419,7 +10478,7 @@
         <v>2</v>
       </c>
       <c r="E425">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -10431,7 +10490,7 @@
         <v>2</v>
       </c>
       <c r="E426">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -10443,7 +10502,7 @@
         <v>2</v>
       </c>
       <c r="E427">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -10455,7 +10514,7 @@
         <v>2</v>
       </c>
       <c r="E428">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -10467,7 +10526,7 @@
         <v>2</v>
       </c>
       <c r="E429">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -10479,7 +10538,7 @@
         <v>2</v>
       </c>
       <c r="E430">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
@@ -10491,7 +10550,7 @@
         <v>2</v>
       </c>
       <c r="E431">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -10503,7 +10562,7 @@
         <v>2</v>
       </c>
       <c r="E432">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -10515,7 +10574,7 @@
         <v>2</v>
       </c>
       <c r="E433">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -10527,7 +10586,7 @@
         <v>2</v>
       </c>
       <c r="E434">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -10539,7 +10598,7 @@
         <v>2</v>
       </c>
       <c r="E435">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -10551,7 +10610,7 @@
         <v>2</v>
       </c>
       <c r="E436">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -10563,7 +10622,7 @@
         <v>2</v>
       </c>
       <c r="E437">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
     </row>
@@ -10575,7 +10634,7 @@
         <v>2</v>
       </c>
       <c r="E438">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -10587,7 +10646,7 @@
         <v>2</v>
       </c>
       <c r="E439">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -10599,7 +10658,7 @@
         <v>2</v>
       </c>
       <c r="E440">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -10611,7 +10670,7 @@
         <v>2</v>
       </c>
       <c r="E441">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -10623,7 +10682,7 @@
         <v>2</v>
       </c>
       <c r="E442">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -10641,7 +10700,7 @@
         <v>2</v>
       </c>
       <c r="E443">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -10653,7 +10712,7 @@
         <v>2</v>
       </c>
       <c r="E444">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -10665,7 +10724,7 @@
         <v>2</v>
       </c>
       <c r="E445">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -10677,7 +10736,7 @@
         <v>2</v>
       </c>
       <c r="E446">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -10689,7 +10748,7 @@
         <v>2</v>
       </c>
       <c r="E447">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -10701,7 +10760,7 @@
         <v>2</v>
       </c>
       <c r="E448">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -10713,7 +10772,7 @@
         <v>2</v>
       </c>
       <c r="E449">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -10725,7 +10784,7 @@
         <v>2</v>
       </c>
       <c r="E450">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -10737,7 +10796,7 @@
         <v>2</v>
       </c>
       <c r="E451">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -10749,7 +10808,7 @@
         <v>2</v>
       </c>
       <c r="E452">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
@@ -10761,7 +10820,7 @@
         <v>2</v>
       </c>
       <c r="E453">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
@@ -10773,7 +10832,7 @@
         <v>2</v>
       </c>
       <c r="E454">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
@@ -10785,7 +10844,7 @@
         <v>2</v>
       </c>
       <c r="E455">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -10797,7 +10856,7 @@
         <v>2</v>
       </c>
       <c r="E456">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -10809,7 +10868,7 @@
         <v>2</v>
       </c>
       <c r="E457">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -10821,7 +10880,7 @@
         <v>2</v>
       </c>
       <c r="E458">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
     </row>
@@ -10833,7 +10892,7 @@
         <v>2</v>
       </c>
       <c r="E459">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -10845,7 +10904,7 @@
         <v>2</v>
       </c>
       <c r="E460">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -10857,7 +10916,7 @@
         <v>2</v>
       </c>
       <c r="E461">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -10869,7 +10928,7 @@
         <v>2</v>
       </c>
       <c r="E462">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -10881,7 +10940,7 @@
         <v>2</v>
       </c>
       <c r="E463">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -10893,7 +10952,7 @@
         <v>2</v>
       </c>
       <c r="E464">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
@@ -10911,7 +10970,7 @@
         <v>2</v>
       </c>
       <c r="E465">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -10923,7 +10982,7 @@
         <v>2</v>
       </c>
       <c r="E466">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -10935,7 +10994,7 @@
         <v>2</v>
       </c>
       <c r="E467">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -10947,7 +11006,7 @@
         <v>2</v>
       </c>
       <c r="E468">
-        <f t="shared" ref="E468:E475" si="7">SUM(C468*D468)</f>
+        <f t="shared" ref="E468:E475" si="9">SUM(C468*D468)</f>
         <v>6</v>
       </c>
     </row>
@@ -10959,7 +11018,7 @@
         <v>2</v>
       </c>
       <c r="E469">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
     </row>
@@ -10971,7 +11030,7 @@
         <v>2</v>
       </c>
       <c r="E470">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -10983,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="E471">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -10995,7 +11054,7 @@
         <v>2</v>
       </c>
       <c r="E472">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -11007,7 +11066,7 @@
         <v>2</v>
       </c>
       <c r="E473">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -11019,7 +11078,7 @@
         <v>2</v>
       </c>
       <c r="E474">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -11031,7 +11090,7 @@
         <v>2</v>
       </c>
       <c r="E475">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -11048,15 +11107,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:F297"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="H153" sqref="H153"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
@@ -12843,7 +12902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="3:5">
+    <row r="145" spans="1:5">
       <c r="C145" s="2">
         <v>4</v>
       </c>
@@ -12855,7 +12914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="3:5">
+    <row r="146" spans="1:5">
       <c r="C146" s="2">
         <v>5</v>
       </c>
@@ -12867,7 +12926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="3:5">
+    <row r="147" spans="1:5">
       <c r="C147" s="2">
         <v>5</v>
       </c>
@@ -12879,7 +12938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="3:5">
+    <row r="148" spans="1:5">
       <c r="C148" s="2">
         <v>4</v>
       </c>
@@ -12891,7 +12950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="3:5">
+    <row r="149" spans="1:5">
       <c r="C149" s="2">
         <v>4</v>
       </c>
@@ -12901,6 +12960,1723 @@
       <c r="E149">
         <f t="shared" si="2"/>
         <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>59</v>
+      </c>
+      <c r="B150" t="s">
+        <v>58</v>
+      </c>
+      <c r="C150" s="2">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <f>C150*D150</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="C151" s="2">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <f t="shared" ref="E151:E235" si="3">C151*D151</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="C152" s="2">
+        <v>3</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="C153" s="2">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="C154" s="2">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="C155" s="2">
+        <v>2</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="C156" s="2">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="C157" s="2">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="C158" s="2">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="C159" s="2">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="C160" s="2">
+        <v>2</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="C161" s="2">
+        <v>3</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="C162" s="2">
+        <v>2</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="C163" s="2">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="C164" s="2">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="C165" s="2">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="C166" s="2">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="C167" s="2">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="C168" s="2">
+        <v>2</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="C169" s="2">
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>68</v>
+      </c>
+      <c r="B170" t="s">
+        <v>58</v>
+      </c>
+      <c r="C170" s="2">
+        <v>2</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="C171" s="2">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="C172" s="2">
+        <v>2</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="C173" s="2">
+        <v>2</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="C174" s="2">
+        <v>2</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="C175" s="2">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="C176" s="2">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="C177" s="2">
+        <v>3</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="C178" s="2">
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="C179" s="2">
+        <v>2</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="C180" s="2">
+        <v>2</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="C181" s="2">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="C182" s="2">
+        <v>3</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="C183" s="2">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="C184" s="2">
+        <v>2</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="C185" s="2">
+        <v>3</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="C186" s="2">
+        <v>2</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="C187" s="2">
+        <v>2</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="C188" s="2">
+        <v>2</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="C189" s="2">
+        <v>3</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>65</v>
+      </c>
+      <c r="B190" t="s">
+        <v>45</v>
+      </c>
+      <c r="C190" s="2">
+        <v>4</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190">
+        <f>C190*D190</f>
+        <v>8</v>
+      </c>
+      <c r="F190" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="C191" s="2">
+        <v>4</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+      <c r="E191">
+        <f>C191*D191</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="C192" s="2">
+        <v>3</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+      <c r="E192">
+        <f t="shared" ref="E192:E210" si="4">C192*D192</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>112</v>
+      </c>
+      <c r="B193" t="s">
+        <v>45</v>
+      </c>
+      <c r="C193" s="2">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="C194" s="2">
+        <v>3</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="C195" s="2">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="C196" s="2">
+        <v>2</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="C197" s="2">
+        <v>2</v>
+      </c>
+      <c r="D197">
+        <v>2</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="C198" s="2">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="C199" s="2">
+        <v>3</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="C200" s="2">
+        <v>4</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="C201" s="2">
+        <v>2</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="C202" s="2">
+        <v>3</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="C203" s="2">
+        <v>2</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="C204" s="2">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="C205" s="2">
+        <v>2</v>
+      </c>
+      <c r="D205">
+        <v>2</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="C206" s="2">
+        <v>3</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="C207" s="2">
+        <v>2</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="C208" s="2">
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="C209" s="2">
+        <v>2</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="C210" s="2">
+        <v>2</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>113</v>
+      </c>
+      <c r="B211" t="s">
+        <v>45</v>
+      </c>
+      <c r="C211" s="2">
+        <v>2</v>
+      </c>
+      <c r="D211">
+        <v>2</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="C212" s="2">
+        <v>3</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="C213" s="2">
+        <v>3</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="C214" s="2">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>2</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="C215" s="2">
+        <v>3</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="C216" s="2">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="C217" s="2">
+        <v>2</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="C218" s="2">
+        <v>3</v>
+      </c>
+      <c r="D218">
+        <v>2</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="C219" s="2">
+        <v>2</v>
+      </c>
+      <c r="D219">
+        <v>2</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="C220" s="2">
+        <v>2</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>114</v>
+      </c>
+      <c r="B221" t="s">
+        <v>45</v>
+      </c>
+      <c r="C221" s="2">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="C222" s="2">
+        <v>2</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="C223" s="2">
+        <v>2</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="C224" s="2">
+        <v>3</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="C225" s="2">
+        <v>2</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="C226" s="2">
+        <v>2</v>
+      </c>
+      <c r="D226">
+        <v>2</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="C227" s="2">
+        <v>2</v>
+      </c>
+      <c r="D227">
+        <v>2</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>115</v>
+      </c>
+      <c r="B228" t="s">
+        <v>41</v>
+      </c>
+      <c r="C228" s="2">
+        <v>3</v>
+      </c>
+      <c r="D228">
+        <v>2</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="C229" s="2">
+        <v>3</v>
+      </c>
+      <c r="D229">
+        <v>2</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="C230" s="2">
+        <v>3</v>
+      </c>
+      <c r="D230">
+        <v>2</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="C231" s="2">
+        <v>3</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="C232" s="2">
+        <v>2</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="C233" s="2">
+        <v>2</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="C234" s="2">
+        <v>2</v>
+      </c>
+      <c r="D234">
+        <v>2</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="C235" s="2">
+        <v>3</v>
+      </c>
+      <c r="D235">
+        <v>2</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="C236" s="2">
+        <v>3</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="E236">
+        <f t="shared" ref="E236:E297" si="5">C236*D236</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="C237" s="2"/>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="C238" s="2"/>
+      <c r="D238">
+        <v>2</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="C239" s="2"/>
+      <c r="D239">
+        <v>2</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="C240" s="2"/>
+      <c r="D240">
+        <v>2</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="C241" s="2"/>
+      <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="C242" s="2"/>
+      <c r="D242">
+        <v>2</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="C243" s="2"/>
+      <c r="D243">
+        <v>2</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="C244" s="2"/>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="C245" s="2"/>
+      <c r="D245">
+        <v>2</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>62</v>
+      </c>
+      <c r="B246" t="s">
+        <v>41</v>
+      </c>
+      <c r="C246" s="2"/>
+      <c r="D246">
+        <v>2</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="C247" s="2"/>
+      <c r="D247">
+        <v>2</v>
+      </c>
+      <c r="E247">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="C248" s="2"/>
+      <c r="D248">
+        <v>2</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="C249" s="2"/>
+      <c r="D249">
+        <v>2</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="C250" s="2"/>
+      <c r="D250">
+        <v>2</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="C251" s="2"/>
+      <c r="D251">
+        <v>2</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="C252" s="2"/>
+      <c r="D252">
+        <v>2</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="C253" s="2"/>
+      <c r="D253">
+        <v>2</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="C254" s="2"/>
+      <c r="D254">
+        <v>2</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="C255" s="2"/>
+      <c r="D255">
+        <v>2</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="C256" s="2"/>
+      <c r="D256">
+        <v>2</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>63</v>
+      </c>
+      <c r="B257" t="s">
+        <v>50</v>
+      </c>
+      <c r="C257" s="2"/>
+      <c r="D257">
+        <v>2</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="C258" s="2"/>
+      <c r="D258">
+        <v>2</v>
+      </c>
+      <c r="E258">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="C259" s="2"/>
+      <c r="D259">
+        <v>2</v>
+      </c>
+      <c r="E259">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="C260" s="2"/>
+      <c r="D260">
+        <v>2</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="C261" s="2"/>
+      <c r="D261">
+        <v>2</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="C262" s="2"/>
+      <c r="D262">
+        <v>2</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="C263" s="2"/>
+      <c r="D263">
+        <v>2</v>
+      </c>
+      <c r="E263">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="C264" s="2"/>
+      <c r="D264">
+        <v>2</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="C265" s="2"/>
+      <c r="D265">
+        <v>2</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="C266" s="2"/>
+      <c r="D266">
+        <v>2</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="C267" s="2"/>
+      <c r="D267">
+        <v>2</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="C268" s="2"/>
+      <c r="D268">
+        <v>2</v>
+      </c>
+      <c r="E268">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="C269" s="2"/>
+      <c r="D269">
+        <v>2</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="C270" s="2"/>
+      <c r="D270">
+        <v>2</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="C271" s="2"/>
+      <c r="D271">
+        <v>2</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="C272" s="2"/>
+      <c r="D272">
+        <v>2</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="C273" s="2"/>
+      <c r="D273">
+        <v>2</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="C274" s="2"/>
+      <c r="D274">
+        <v>2</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="C275" s="2"/>
+      <c r="D275">
+        <v>2</v>
+      </c>
+      <c r="E275">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="C276" s="2"/>
+      <c r="D276">
+        <v>2</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="C277" s="2"/>
+      <c r="D277">
+        <v>2</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>64</v>
+      </c>
+      <c r="B278" t="s">
+        <v>50</v>
+      </c>
+      <c r="C278" s="2"/>
+      <c r="D278">
+        <v>2</v>
+      </c>
+      <c r="E278">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="C279" s="2"/>
+      <c r="D279">
+        <v>2</v>
+      </c>
+      <c r="E279">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="C280" s="2"/>
+      <c r="D280">
+        <v>2</v>
+      </c>
+      <c r="E280">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="C281" s="2"/>
+      <c r="D281">
+        <v>2</v>
+      </c>
+      <c r="E281">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="C282" s="2"/>
+      <c r="D282">
+        <v>2</v>
+      </c>
+      <c r="E282">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="C283" s="2"/>
+      <c r="D283">
+        <v>2</v>
+      </c>
+      <c r="E283">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="C284" s="2"/>
+      <c r="D284">
+        <v>2</v>
+      </c>
+      <c r="E284">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="C285" s="2"/>
+      <c r="D285">
+        <v>2</v>
+      </c>
+      <c r="E285">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="C286" s="2"/>
+      <c r="D286">
+        <v>2</v>
+      </c>
+      <c r="E286">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="C287" s="2"/>
+      <c r="D287">
+        <v>2</v>
+      </c>
+      <c r="E287">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="C288" s="2"/>
+      <c r="D288">
+        <v>2</v>
+      </c>
+      <c r="E288">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="3:5">
+      <c r="C289" s="2"/>
+      <c r="D289">
+        <v>2</v>
+      </c>
+      <c r="E289">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="3:5">
+      <c r="C290" s="2"/>
+      <c r="D290">
+        <v>2</v>
+      </c>
+      <c r="E290">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="3:5">
+      <c r="C291" s="2"/>
+      <c r="D291">
+        <v>2</v>
+      </c>
+      <c r="E291">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="3:5">
+      <c r="C292" s="2"/>
+      <c r="D292">
+        <v>2</v>
+      </c>
+      <c r="E292">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="3:5">
+      <c r="C293" s="2"/>
+      <c r="D293">
+        <v>2</v>
+      </c>
+      <c r="E293">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="3:5">
+      <c r="C294" s="2"/>
+      <c r="D294">
+        <v>2</v>
+      </c>
+      <c r="E294">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="3:5">
+      <c r="C295" s="2"/>
+      <c r="D295">
+        <v>2</v>
+      </c>
+      <c r="E295">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="3:5">
+      <c r="C296" s="2"/>
+      <c r="D296">
+        <v>2</v>
+      </c>
+      <c r="E296">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="3:5">
+      <c r="C297" s="2"/>
+      <c r="D297">
+        <v>2</v>
+      </c>
+      <c r="E297">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12918,8 +14694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E410"/>
   <sheetViews>
-    <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C405" sqref="C399:E405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27753,7 +29529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E430"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -31970,7 +33746,7 @@
         <v>0.8</v>
       </c>
       <c r="E329">
-        <f t="shared" ref="E329:E364" si="1">C329*0.8</f>
+        <f t="shared" ref="E329:E332" si="1">C329*0.8</f>
         <v>6.4</v>
       </c>
     </row>

--- a/widthHCcombined.xlsx
+++ b/widthHCcombined.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13360" yWindow="0" windowWidth="13120" windowHeight="16540" tabRatio="659" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="659"/>
   </bookViews>
   <sheets>
     <sheet name="ColdYounger" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="115">
   <si>
     <t>Ind48_right_60xobj_YAYHAIR</t>
   </si>
@@ -358,9 +358,6 @@
   </si>
   <si>
     <t>Indiv6L_c262_40x_second(typo-c292)</t>
-  </si>
-  <si>
-    <t>flat position so didn't measure many</t>
   </si>
   <si>
     <t>Indiv147L_c428_60x_second</t>
@@ -949,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E345"/>
   <sheetViews>
-    <sheetView topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="A333" sqref="A333"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1781,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E97" si="2">C66*D66</f>
+        <f t="shared" ref="E66:E67" si="2">C66*D66</f>
         <v>6</v>
       </c>
     </row>
@@ -5247,8 +5244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E475"/>
   <sheetViews>
-    <sheetView topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11107,10 +11104,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F297"/>
+  <dimension ref="A1:E297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="D226" sqref="D226"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13298,7 +13295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:5">
       <c r="C177" s="2">
         <v>3</v>
       </c>
@@ -13310,7 +13307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:5">
       <c r="C178" s="2">
         <v>2</v>
       </c>
@@ -13322,7 +13319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:5">
       <c r="C179" s="2">
         <v>2</v>
       </c>
@@ -13334,7 +13331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:5">
       <c r="C180" s="2">
         <v>2</v>
       </c>
@@ -13346,7 +13343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:5">
       <c r="C181" s="2">
         <v>2</v>
       </c>
@@ -13358,7 +13355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:5">
       <c r="C182" s="2">
         <v>3</v>
       </c>
@@ -13370,7 +13367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:5">
       <c r="C183" s="2">
         <v>2</v>
       </c>
@@ -13382,7 +13379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:5">
       <c r="C184" s="2">
         <v>2</v>
       </c>
@@ -13394,7 +13391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:5">
       <c r="C185" s="2">
         <v>3</v>
       </c>
@@ -13406,7 +13403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:5">
       <c r="C186" s="2">
         <v>2</v>
       </c>
@@ -13418,7 +13415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:5">
       <c r="C187" s="2">
         <v>2</v>
       </c>
@@ -13430,7 +13427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:5">
       <c r="C188" s="2">
         <v>2</v>
       </c>
@@ -13442,7 +13439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:5">
       <c r="C189" s="2">
         <v>3</v>
       </c>
@@ -13454,7 +13451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>65</v>
       </c>
@@ -13471,11 +13468,8 @@
         <f>C190*D190</f>
         <v>8</v>
       </c>
-      <c r="F190" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+    </row>
+    <row r="191" spans="1:5">
       <c r="C191" s="2">
         <v>4</v>
       </c>
@@ -13487,7 +13481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:5">
       <c r="C192" s="2">
         <v>3</v>
       </c>
@@ -13501,7 +13495,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B193" t="s">
         <v>45</v>
@@ -13723,7 +13717,7 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B211" t="s">
         <v>45</v>
@@ -13849,7 +13843,7 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B221" t="s">
         <v>45</v>
@@ -13939,7 +13933,7 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B228" t="s">
         <v>41</v>
@@ -14695,7 +14689,7 @@
   <dimension ref="A1:E410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C405" sqref="C399:E405"/>
+      <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19759,8 +19753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E400"/>
   <sheetViews>
-    <sheetView topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -24680,8 +24674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E410"/>
   <sheetViews>
-    <sheetView topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="A211" sqref="A211:XFD410"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -29530,12 +29524,14 @@
   <dimension ref="A1:E430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.6640625" style="4"/>
+    <col min="1" max="1" width="14.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="10.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
